--- a/data/transcriptions/transcription_ex7.xlsx
+++ b/data/transcriptions/transcription_ex7.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="39" documentId="13_ncr:1_{10B1438D-2B05-4A31-AE33-93986825B1B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59A94144-3AA3-6E4F-919E-D58D0E3E15F3}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{6D6EFBF4-D3F9-A04D-9AC4-202B897D114E}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{6D6EFBF4-D3F9-A04D-9AC4-202B897D114E}"/>
   </bookViews>
   <sheets>
     <sheet name="IMG_2024_03_19_12_00_56_579" sheetId="2" r:id="rId1"/>
@@ -901,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB076F5B-4564-1543-8968-7E29FE54F40E}">
   <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="207" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/transcriptions/transcription_ex7.xlsx
+++ b/data/transcriptions/transcription_ex7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vub-my.sharepoint.com/personal/seorin_kim_vub_be/Documents/img-analysis_seorin_project/data/transcriptions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="13_ncr:1_{10B1438D-2B05-4A31-AE33-93986825B1B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59A94144-3AA3-6E4F-919E-D58D0E3E15F3}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="13_ncr:1_{10B1438D-2B05-4A31-AE33-93986825B1B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D47B13F5-C1AE-1F41-B529-A867509A92F6}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{6D6EFBF4-D3F9-A04D-9AC4-202B897D114E}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="71">
   <si>
     <t>Nom.</t>
   </si>
@@ -289,28 +289,28 @@
     <t>Heneaoit</t>
   </si>
   <si>
-    <t>servais</t>
-  </si>
-  <si>
-    <t>Arrêté le vingt trois juin 1921</t>
-  </si>
-  <si>
-    <t>Arrêté le vingt deux juin 1921</t>
-  </si>
-  <si>
-    <t>Arrêté le vingt un juin 1921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arrêté le vingt juin 1921 </t>
-  </si>
-  <si>
-    <t>Arrêté le dix neuf juin 1921 Dimanche</t>
-  </si>
-  <si>
-    <t>Arrêté le dix huit juin 1921</t>
-  </si>
-  <si>
-    <t>Arrêté le seize juin 1921</t>
+    <t>Arrêté le vingt un juin 1921 servais</t>
+  </si>
+  <si>
+    <t>Arrêté le vingt deux juin 1921 servais</t>
+  </si>
+  <si>
+    <t>Arrêté le vingt trois juin 1921 servais</t>
+  </si>
+  <si>
+    <t>Arrêté le vingt juin 1921 servais</t>
+  </si>
+  <si>
+    <t>Arrêté le dix neuf juin 1921 Dimanche servais</t>
+  </si>
+  <si>
+    <t>Arrêté le dix huit juin 1921 servais</t>
+  </si>
+  <si>
+    <t>Arrêté le seize juin 1921 servais</t>
+  </si>
+  <si>
+    <t>Note</t>
   </si>
 </sst>
 </file>
@@ -901,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB076F5B-4564-1543-8968-7E29FE54F40E}">
   <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" zoomScale="209" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -974,7 +974,9 @@
       <c r="E2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="5"/>
+      <c r="F2" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="G2" s="26"/>
       <c r="H2" s="26"/>
       <c r="I2" s="10" t="s">
@@ -1018,11 +1020,8 @@
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="1"/>
-      <c r="C3" t="s">
-        <v>70</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="G3" s="19"/>
       <c r="H3" s="2"/>
@@ -1109,12 +1108,10 @@
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="21" t="s">
-        <v>55</v>
-      </c>
+      <c r="C6" s="21"/>
       <c r="E6" s="11"/>
       <c r="F6" s="16" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="G6" s="16"/>
       <c r="H6" s="2"/>
@@ -1175,11 +1172,9 @@
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="21" t="s">
-        <v>69</v>
-      </c>
+      <c r="C8" s="21"/>
       <c r="F8" s="17" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="2"/>
@@ -1196,11 +1191,9 @@
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="21" t="s">
-        <v>68</v>
-      </c>
+      <c r="C9" s="21"/>
       <c r="F9" s="16" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G9" s="16"/>
       <c r="H9" s="2"/>
@@ -1216,11 +1209,9 @@
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="21" t="s">
-        <v>67</v>
-      </c>
+      <c r="C10" s="21"/>
       <c r="F10" s="16" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G10" s="19"/>
       <c r="H10" s="2"/>
@@ -1280,9 +1271,6 @@
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="1"/>
-      <c r="C12" t="s">
-        <v>66</v>
-      </c>
       <c r="F12" s="16" t="s">
         <v>63</v>
       </c>
@@ -1302,11 +1290,8 @@
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="1"/>
-      <c r="C13" t="s">
-        <v>65</v>
-      </c>
       <c r="F13" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G13" s="19"/>
       <c r="H13" s="12"/>
@@ -1323,11 +1308,8 @@
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="1"/>
-      <c r="C14" t="s">
-        <v>64</v>
-      </c>
       <c r="F14" s="16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G14" s="16"/>
       <c r="H14" s="2"/>

--- a/data/transcriptions/transcription_ex7.xlsx
+++ b/data/transcriptions/transcription_ex7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vub-my.sharepoint.com/personal/seorin_kim_vub_be/Documents/img-analysis_seorin_project/data/transcriptions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="13_ncr:1_{10B1438D-2B05-4A31-AE33-93986825B1B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D47B13F5-C1AE-1F41-B529-A867509A92F6}"/>
+  <xr:revisionPtr revIDLastSave="62" documentId="13_ncr:1_{10B1438D-2B05-4A31-AE33-93986825B1B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4D9FBF7-8A7E-E944-AC52-EB32C4A8ACE4}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{6D6EFBF4-D3F9-A04D-9AC4-202B897D114E}"/>
   </bookViews>
@@ -41,7 +41,7 @@
     <author>tc={F6329581-67FE-D446-9D65-3B6FA85C28B6}</author>
   </authors>
   <commentList>
-    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{F6329581-67FE-D446-9D65-3B6FA85C28B6}">
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{F6329581-67FE-D446-9D65-3B6FA85C28B6}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="70">
   <si>
     <t>Nom.</t>
   </si>
@@ -308,9 +308,6 @@
   </si>
   <si>
     <t>Arrêté le seize juin 1921 servais</t>
-  </si>
-  <si>
-    <t>Note</t>
   </si>
 </sst>
 </file>
@@ -510,7 +507,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -531,7 +528,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -891,7 +887,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="K2" dT="2024-06-04T15:34:06.38" personId="{1AD915DC-3A0C-2F48-9C8B-C8EDAE0F9D6B}" id="{F6329581-67FE-D446-9D65-3B6FA85C28B6}">
+  <threadedComment ref="J2" dT="2024-06-04T15:34:06.38" personId="{1AD915DC-3A0C-2F48-9C8B-C8EDAE0F9D6B}" id="{F6329581-67FE-D446-9D65-3B6FA85C28B6}">
     <text>Actif-passif=restant</text>
   </threadedComment>
 </ThreadedComments>
@@ -899,72 +895,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB076F5B-4564-1543-8968-7E29FE54F40E}">
-  <dimension ref="A1:U21"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="209" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" zoomScale="156" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="19.83203125" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" customWidth="1"/>
+    <col min="6" max="6" width="19.83203125" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="25" t="s">
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="G1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="H1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="27"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="8" t="s">
+      <c r="I1" s="26"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="L1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="24"/>
-      <c r="O1" s="23" t="s">
+      <c r="M1" s="23"/>
+      <c r="N1" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="25" t="s">
+      <c r="O1" s="23"/>
+      <c r="P1" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="23" t="s">
+      <c r="Q1" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="24"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="9" t="s">
+        <v>20</v>
+      </c>
       <c r="T1" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="U1" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="5" t="s">
         <v>0</v>
       </c>
@@ -974,76 +968,73 @@
       <c r="E2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="10" t="s">
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="10" t="s">
         <v>8</v>
       </c>
+      <c r="I2" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="J2" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="L2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="M2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="N2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="O2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="10" t="s">
+      <c r="P2" s="25"/>
+      <c r="Q2" s="10" t="s">
         <v>14</v>
       </c>
+      <c r="R2" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="S2" s="9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="U2" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="1"/>
-      <c r="F3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="2"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="1"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="2"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="2"/>
       <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>145</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="20" t="s">
         <v>57</v>
       </c>
       <c r="D4" t="s">
@@ -1052,86 +1043,83 @@
       <c r="E4" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16" t="s">
+      <c r="F4" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>44</v>
       </c>
+      <c r="H4">
+        <v>54845</v>
+      </c>
       <c r="I4">
-        <v>54845</v>
-      </c>
-      <c r="J4">
         <v>1413</v>
       </c>
-      <c r="K4" s="15">
+      <c r="J4" s="15">
         <v>53432</v>
       </c>
-      <c r="L4" s="2"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="17" t="s">
+      <c r="K4" s="2"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="S4">
+      <c r="R4">
         <v>174</v>
       </c>
+      <c r="S4" s="2"/>
       <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="15"/>
-      <c r="C5" s="21"/>
+      <c r="C5" s="20"/>
       <c r="E5" s="11"/>
       <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="2"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="17" t="s">
+      <c r="G5" s="2"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="S5">
+      <c r="R5">
         <v>391</v>
       </c>
+      <c r="S5" s="2"/>
       <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="21"/>
+      <c r="C6" s="16" t="s">
+        <v>55</v>
+      </c>
       <c r="E6" s="11"/>
-      <c r="F6" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="2"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="2"/>
-      <c r="N6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="17"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="2"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="2"/>
+      <c r="M6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="17"/>
+      <c r="S6" s="2"/>
       <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>146</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="20" t="s">
         <v>27</v>
       </c>
       <c r="D7" t="s">
@@ -1140,190 +1128,185 @@
       <c r="E7" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17" t="s">
+      <c r="F7" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>45</v>
       </c>
+      <c r="H7" s="13">
+        <v>12905</v>
+      </c>
       <c r="I7" s="13">
-        <v>12905</v>
-      </c>
-      <c r="J7" s="13">
         <v>854</v>
       </c>
-      <c r="K7" s="1">
+      <c r="J7" s="1">
         <v>12020</v>
       </c>
-      <c r="L7" s="2"/>
-      <c r="N7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="17" t="s">
+      <c r="K7" s="2"/>
+      <c r="M7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="S7" s="13">
+      <c r="R7" s="13">
         <v>169</v>
       </c>
+      <c r="S7" s="2"/>
       <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="21"/>
-      <c r="F8" s="17" t="s">
+      <c r="C8" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="13"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="2"/>
-      <c r="N8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="2"/>
-      <c r="S8" s="1"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="13"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="2"/>
+      <c r="M8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="2"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="2"/>
       <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="21"/>
-      <c r="F9" s="16" t="s">
+      <c r="C9" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="G9" s="16"/>
-      <c r="H9" s="2"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="2"/>
-      <c r="N9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="2"/>
-      <c r="S9" s="1"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="2"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="2"/>
+      <c r="M9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="2"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="2"/>
       <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="21"/>
-      <c r="F10" s="16" t="s">
+      <c r="C10" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="2"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="2"/>
-      <c r="N10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="1"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="2"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="2"/>
+      <c r="M10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="2"/>
       <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>147</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="20" t="s">
         <v>58</v>
       </c>
       <c r="D11" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="19" t="s">
+      <c r="F11" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="H11">
+        <v>1960</v>
+      </c>
       <c r="I11">
-        <v>1960</v>
-      </c>
-      <c r="J11">
         <v>336</v>
       </c>
-      <c r="K11" s="1">
+      <c r="J11" s="1">
         <v>1624</v>
       </c>
-      <c r="L11" s="2"/>
-      <c r="N11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" t="s">
+      <c r="K11" s="2"/>
+      <c r="M11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" t="s">
         <v>50</v>
       </c>
-      <c r="S11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="2"/>
       <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="1"/>
-      <c r="F12" s="16" t="s">
+      <c r="C12" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="G12" s="19"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="13"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="2"/>
-      <c r="N12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="1"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="13"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="2"/>
+      <c r="M12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="2"/>
       <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="1"/>
-      <c r="F13" s="16" t="s">
+      <c r="C13" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="G13" s="19"/>
-      <c r="H13" s="12"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="2"/>
-      <c r="N13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="1"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="12"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="2"/>
+      <c r="M13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="2"/>
       <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="1"/>
-      <c r="F14" s="16" t="s">
+      <c r="C14" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="G14" s="16"/>
-      <c r="H14" s="2"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="2"/>
-      <c r="N14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="1"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="2"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="2"/>
+      <c r="M14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="2"/>
       <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>148</v>
       </c>
@@ -1339,38 +1322,37 @@
       <c r="E15" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="19" t="s">
+      <c r="F15" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="H15">
+        <v>2945</v>
+      </c>
       <c r="I15">
-        <v>2945</v>
+        <v>1333</v>
       </c>
       <c r="J15">
-        <v>1333</v>
-      </c>
-      <c r="K15">
         <v>1612</v>
       </c>
-      <c r="L15" s="2"/>
-      <c r="N15" s="1" t="s">
+      <c r="K15" s="2"/>
+      <c r="M15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="17" t="s">
+      <c r="O15" s="1"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="S15" s="1">
+      <c r="R15" s="1">
         <v>287</v>
       </c>
+      <c r="S15" s="2"/>
       <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>149</v>
       </c>
@@ -1386,134 +1368,128 @@
       <c r="E16" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="16"/>
-      <c r="G16" s="19" t="s">
+      <c r="F16" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>48</v>
       </c>
+      <c r="H16">
+        <v>9836</v>
+      </c>
       <c r="I16">
-        <v>9836</v>
+        <v>325</v>
       </c>
       <c r="J16">
-        <v>325</v>
-      </c>
-      <c r="K16">
         <v>9511</v>
       </c>
-      <c r="L16" s="2"/>
-      <c r="N16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" t="s">
+      <c r="K16" s="2"/>
+      <c r="M16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" t="s">
         <v>50</v>
       </c>
-      <c r="S16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="2"/>
       <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="1"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="2"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="13"/>
       <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="2"/>
-      <c r="N17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="2"/>
+      <c r="M17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="2"/>
       <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="1"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="2"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="2"/>
-      <c r="N18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="14"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="2"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="2"/>
+      <c r="M18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="2"/>
       <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="1"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="2"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="2"/>
-      <c r="N19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="17"/>
-      <c r="S19" s="1"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="2"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="2"/>
+      <c r="M19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="2"/>
       <c r="T19" s="2"/>
-      <c r="U19" s="2"/>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B20" s="1"/>
-      <c r="F20" s="16"/>
+      <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="2"/>
-      <c r="N20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="2"/>
+      <c r="M20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="2"/>
       <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
-      <c r="F21" s="18"/>
+      <c r="F21" s="7"/>
       <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
+      <c r="H21" s="6"/>
       <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="20"/>
-      <c r="S21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="7"/>
       <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:R1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="H1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>

--- a/data/transcriptions/transcription_ex7.xlsx
+++ b/data/transcriptions/transcription_ex7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vub-my.sharepoint.com/personal/seorin_kim_vub_be/Documents/img-analysis_seorin_project/data/transcriptions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="13_ncr:1_{10B1438D-2B05-4A31-AE33-93986825B1B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4D9FBF7-8A7E-E944-AC52-EB32C4A8ACE4}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="13_ncr:1_{10B1438D-2B05-4A31-AE33-93986825B1B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{187BB629-52F6-8249-988D-43989961703A}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{6D6EFBF4-D3F9-A04D-9AC4-202B897D114E}"/>
   </bookViews>
@@ -188,31 +188,6 @@
     <t>29 mai 1920</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Van </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>…</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Julienne &amp; autres</t>
-    </r>
-  </si>
-  <si>
     <t>Rose Eloise</t>
   </si>
   <si>
@@ -241,12 +216,6 @@
     </r>
   </si>
   <si>
-    <t>Giriss Emilie &amp; autres</t>
-  </si>
-  <si>
-    <t>Hazart Elisabeth &amp; autres</t>
-  </si>
-  <si>
     <t>260(5)/1922</t>
   </si>
   <si>
@@ -286,9 +255,6 @@
     <t>Jean Bte</t>
   </si>
   <si>
-    <t>Heneaoit</t>
-  </si>
-  <si>
     <t>Arrêté le vingt un juin 1921 servais</t>
   </si>
   <si>
@@ -308,6 +274,18 @@
   </si>
   <si>
     <t>Arrêté le seize juin 1921 servais</t>
+  </si>
+  <si>
+    <t>Plancenoit</t>
+  </si>
+  <si>
+    <t>Van ackter Julienne &amp; autres</t>
+  </si>
+  <si>
+    <t>Gérin Emilie &amp; autres</t>
+  </si>
+  <si>
+    <t>Hazard Elisabeth &amp; autres</t>
   </si>
 </sst>
 </file>
@@ -343,18 +321,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="13">
@@ -531,7 +503,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -547,6 +518,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -898,7 +870,7 @@
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="156" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -909,46 +881,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="24" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="26"/>
-      <c r="J1" s="23"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="22"/>
       <c r="K1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="23"/>
-      <c r="N1" s="22" t="s">
+      <c r="M1" s="22"/>
+      <c r="N1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="23"/>
-      <c r="P1" s="24" t="s">
+      <c r="O1" s="22"/>
+      <c r="P1" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="22" t="s">
+      <c r="Q1" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="23"/>
+      <c r="R1" s="22"/>
       <c r="S1" s="9" t="s">
         <v>20</v>
       </c>
@@ -957,8 +929,8 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="5" t="s">
         <v>0</v>
       </c>
@@ -968,8 +940,8 @@
       <c r="E2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
       <c r="H2" s="10" t="s">
         <v>8</v>
       </c>
@@ -994,7 +966,7 @@
       <c r="O2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="25"/>
+      <c r="P2" s="24"/>
       <c r="Q2" s="10" t="s">
         <v>14</v>
       </c>
@@ -1012,7 +984,7 @@
       <c r="A3" s="3"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F3" s="18"/>
       <c r="G3" s="2"/>
@@ -1035,7 +1007,7 @@
         <v>30</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D4" t="s">
         <v>33</v>
@@ -1047,7 +1019,7 @@
         <v>39</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="H4">
         <v>54845</v>
@@ -1064,7 +1036,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R4">
         <v>174</v>
@@ -1086,7 +1058,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="17" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R5">
         <v>391</v>
@@ -1098,7 +1070,7 @@
       <c r="A6" s="3"/>
       <c r="B6" s="1"/>
       <c r="C6" s="16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="16"/>
@@ -1123,7 +1095,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>36</v>
@@ -1132,7 +1104,7 @@
         <v>40</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H7" s="13">
         <v>12905</v>
@@ -1148,7 +1120,7 @@
       <c r="O7" s="1"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="17" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R7" s="13">
         <v>169</v>
@@ -1160,7 +1132,7 @@
       <c r="A8" s="3"/>
       <c r="B8" s="1"/>
       <c r="C8" s="17" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F8" s="17"/>
       <c r="G8" s="2"/>
@@ -1178,7 +1150,7 @@
       <c r="A9" s="3"/>
       <c r="B9" s="1"/>
       <c r="C9" s="16" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="2"/>
@@ -1195,7 +1167,7 @@
       <c r="A10" s="3"/>
       <c r="B10" s="1"/>
       <c r="C10" s="16" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F10" s="18"/>
       <c r="G10" s="2"/>
@@ -1217,19 +1189,19 @@
         <v>32</v>
       </c>
       <c r="C11" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" t="s">
         <v>58</v>
       </c>
-      <c r="D11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>62</v>
+      <c r="E11" s="26" t="s">
+        <v>66</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>41</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H11">
         <v>1960</v>
@@ -1245,7 +1217,7 @@
       <c r="O11" s="1"/>
       <c r="P11" s="2"/>
       <c r="Q11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R11" s="1"/>
       <c r="S11" s="2"/>
@@ -1255,7 +1227,7 @@
       <c r="A12" s="3"/>
       <c r="B12" s="1"/>
       <c r="C12" s="16" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="2"/>
@@ -1274,7 +1246,7 @@
       <c r="A13" s="3"/>
       <c r="B13" s="1"/>
       <c r="C13" s="16" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F13" s="18"/>
       <c r="G13" s="12"/>
@@ -1292,7 +1264,7 @@
       <c r="A14" s="3"/>
       <c r="B14" s="1"/>
       <c r="C14" s="16" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="2"/>
@@ -1311,7 +1283,7 @@
         <v>148</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1326,7 +1298,7 @@
         <v>42</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="H15">
         <v>2945</v>
@@ -1339,12 +1311,12 @@
       </c>
       <c r="K15" s="2"/>
       <c r="M15" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="O15" s="1"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="17" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R15" s="1">
         <v>287</v>
@@ -1360,10 +1332,10 @@
         <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D16" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E16" t="s">
         <v>38</v>
@@ -1372,7 +1344,7 @@
         <v>43</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="H16">
         <v>9836</v>
@@ -1388,7 +1360,7 @@
       <c r="O16" s="1"/>
       <c r="P16" s="2"/>
       <c r="Q16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R16" s="1"/>
       <c r="S16" s="2"/>

--- a/data/transcriptions/transcription_ex7.xlsx
+++ b/data/transcriptions/transcription_ex7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vub-my.sharepoint.com/personal/seorin_kim_vub_be/Documents/img-analysis_seorin_project/data/transcriptions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="69" documentId="13_ncr:1_{10B1438D-2B05-4A31-AE33-93986825B1B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{187BB629-52F6-8249-988D-43989961703A}"/>
+  <xr:revisionPtr revIDLastSave="71" documentId="13_ncr:1_{10B1438D-2B05-4A31-AE33-93986825B1B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{462D66BD-8510-2643-8D7C-69114D5BD7C0}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{6D6EFBF4-D3F9-A04D-9AC4-202B897D114E}"/>
   </bookViews>
@@ -191,8 +191,84 @@
     <t>Rose Eloise</t>
   </si>
   <si>
+    <t>260(5)/1922</t>
+  </si>
+  <si>
+    <t>non passible</t>
+  </si>
+  <si>
+    <t>28 novembre 1921</t>
+  </si>
+  <si>
+    <t>16 septembre 1921</t>
+  </si>
+  <si>
+    <t>28 - 11 - 1921</t>
+  </si>
+  <si>
+    <t>4 janvier 1922</t>
+  </si>
+  <si>
+    <t>Arrêté le dix sept juin 1921 servais</t>
+  </si>
+  <si>
+    <t>vingt quatre</t>
+  </si>
+  <si>
+    <t>Luyex</t>
+  </si>
+  <si>
+    <t>Leblicq</t>
+  </si>
+  <si>
+    <t>Kégelart</t>
+  </si>
+  <si>
+    <t>Laurent gh</t>
+  </si>
+  <si>
+    <t>Jean Bte</t>
+  </si>
+  <si>
+    <t>Arrêté le vingt un juin 1921 servais</t>
+  </si>
+  <si>
+    <t>Arrêté le vingt deux juin 1921 servais</t>
+  </si>
+  <si>
+    <t>Arrêté le vingt trois juin 1921 servais</t>
+  </si>
+  <si>
+    <t>Arrêté le vingt juin 1921 servais</t>
+  </si>
+  <si>
+    <t>Arrêté le dix neuf juin 1921 Dimanche servais</t>
+  </si>
+  <si>
+    <t>Arrêté le dix huit juin 1921 servais</t>
+  </si>
+  <si>
+    <t>Arrêté le seize juin 1921 servais</t>
+  </si>
+  <si>
+    <t>Plancenoit</t>
+  </si>
+  <si>
+    <t>Gérin Emilie &amp; autres</t>
+  </si>
+  <si>
+    <t>Hazard Elisabeth &amp; autres</t>
+  </si>
+  <si>
     <r>
-      <t>Pierot</t>
+      <t>Piero</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>t Marie</t>
     </r>
     <r>
       <rPr>
@@ -202,7 +278,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Marie Obirèle</t>
+      <t xml:space="preserve"> Obirèle</t>
     </r>
     <r>
       <rPr>
@@ -216,83 +292,14 @@
     </r>
   </si>
   <si>
-    <t>260(5)/1922</t>
-  </si>
-  <si>
-    <t>non passible</t>
-  </si>
-  <si>
-    <t>28 novembre 1921</t>
-  </si>
-  <si>
-    <t>16 septembre 1921</t>
-  </si>
-  <si>
-    <t>28 - 11 - 1921</t>
-  </si>
-  <si>
-    <t>4 janvier 1922</t>
-  </si>
-  <si>
-    <t>Arrêté le dix sept juin 1921 servais</t>
-  </si>
-  <si>
-    <t>vingt quatre</t>
-  </si>
-  <si>
-    <t>Luyex</t>
-  </si>
-  <si>
-    <t>Leblicq</t>
-  </si>
-  <si>
-    <t>Kégelart</t>
-  </si>
-  <si>
-    <t>Laurent gh</t>
-  </si>
-  <si>
-    <t>Jean Bte</t>
-  </si>
-  <si>
-    <t>Arrêté le vingt un juin 1921 servais</t>
-  </si>
-  <si>
-    <t>Arrêté le vingt deux juin 1921 servais</t>
-  </si>
-  <si>
-    <t>Arrêté le vingt trois juin 1921 servais</t>
-  </si>
-  <si>
-    <t>Arrêté le vingt juin 1921 servais</t>
-  </si>
-  <si>
-    <t>Arrêté le dix neuf juin 1921 Dimanche servais</t>
-  </si>
-  <si>
-    <t>Arrêté le dix huit juin 1921 servais</t>
-  </si>
-  <si>
-    <t>Arrêté le seize juin 1921 servais</t>
-  </si>
-  <si>
-    <t>Plancenoit</t>
-  </si>
-  <si>
-    <t>Van ackter Julienne &amp; autres</t>
-  </si>
-  <si>
-    <t>Gérin Emilie &amp; autres</t>
-  </si>
-  <si>
-    <t>Hazard Elisabeth &amp; autres</t>
+    <t>Van Ackter Julienne &amp; autres</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -320,6 +327,10 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Aptos Narrow (Body)"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -479,7 +490,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -518,7 +529,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -870,7 +880,7 @@
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="156" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -984,7 +994,7 @@
       <c r="A3" s="3"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F3" s="18"/>
       <c r="G3" s="2"/>
@@ -1007,7 +1017,7 @@
         <v>30</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s">
         <v>33</v>
@@ -1019,7 +1029,7 @@
         <v>39</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H4">
         <v>54845</v>
@@ -1036,7 +1046,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R4">
         <v>174</v>
@@ -1058,7 +1068,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R5">
         <v>391</v>
@@ -1070,7 +1080,7 @@
       <c r="A6" s="3"/>
       <c r="B6" s="1"/>
       <c r="C6" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="16"/>
@@ -1095,7 +1105,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>36</v>
@@ -1120,7 +1130,7 @@
       <c r="O7" s="1"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R7" s="13">
         <v>169</v>
@@ -1132,7 +1142,7 @@
       <c r="A8" s="3"/>
       <c r="B8" s="1"/>
       <c r="C8" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F8" s="17"/>
       <c r="G8" s="2"/>
@@ -1150,7 +1160,7 @@
       <c r="A9" s="3"/>
       <c r="B9" s="1"/>
       <c r="C9" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="2"/>
@@ -1167,7 +1177,7 @@
       <c r="A10" s="3"/>
       <c r="B10" s="1"/>
       <c r="C10" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F10" s="18"/>
       <c r="G10" s="2"/>
@@ -1189,19 +1199,19 @@
         <v>32</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="26" t="s">
-        <v>66</v>
+        <v>57</v>
+      </c>
+      <c r="E11" t="s">
+        <v>65</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>41</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="H11">
         <v>1960</v>
@@ -1217,7 +1227,7 @@
       <c r="O11" s="1"/>
       <c r="P11" s="2"/>
       <c r="Q11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R11" s="1"/>
       <c r="S11" s="2"/>
@@ -1227,7 +1237,7 @@
       <c r="A12" s="3"/>
       <c r="B12" s="1"/>
       <c r="C12" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="2"/>
@@ -1246,7 +1256,7 @@
       <c r="A13" s="3"/>
       <c r="B13" s="1"/>
       <c r="C13" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F13" s="18"/>
       <c r="G13" s="12"/>
@@ -1264,7 +1274,7 @@
       <c r="A14" s="3"/>
       <c r="B14" s="1"/>
       <c r="C14" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="2"/>
@@ -1283,7 +1293,7 @@
         <v>148</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1298,7 +1308,7 @@
         <v>42</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H15">
         <v>2945</v>
@@ -1311,12 +1321,12 @@
       </c>
       <c r="K15" s="2"/>
       <c r="M15" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O15" s="1"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R15" s="1">
         <v>287</v>
@@ -1332,10 +1342,10 @@
         <v>29</v>
       </c>
       <c r="C16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" t="s">
         <v>56</v>
-      </c>
-      <c r="D16" t="s">
-        <v>57</v>
       </c>
       <c r="E16" t="s">
         <v>38</v>
@@ -1344,7 +1354,7 @@
         <v>43</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H16">
         <v>9836</v>
@@ -1360,7 +1370,7 @@
       <c r="O16" s="1"/>
       <c r="P16" s="2"/>
       <c r="Q16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R16" s="1"/>
       <c r="S16" s="2"/>

--- a/data/transcriptions/transcription_ex7.xlsx
+++ b/data/transcriptions/transcription_ex7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11013"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julien\OneDrive\Documents\Github\img-analysis_seorin_project\data\transcriptions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/serenekim/Desktop/PhD/img-analysis_seorin_project/data/transcriptions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD5B80B-2275-4F14-B25F-B75DD05B8BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9544E841-4B90-8F4B-961F-6A52E9780530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IMG_2024_03_19_12_00_56_579" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,6 @@
     <t>N' d'ordre</t>
   </si>
   <si>
-    <t>Date du dépot des déclarations</t>
-  </si>
-  <si>
     <t>Désignation des personnes décédées ou absentes.</t>
   </si>
   <si>
@@ -40,9 +37,6 @@
     <t>Droits de succession en ligne collatérale et de mutation en ligne directe.</t>
   </si>
   <si>
-    <t>Droit de mutation par déces</t>
-  </si>
-  <si>
     <t>Numéros des déclarations</t>
   </si>
   <si>
@@ -98,9 +92,6 @@
   </si>
   <si>
     <t>Numéros de la consignation au sommier n'30</t>
-  </si>
-  <si>
-    <t>(les déclarations qui figurent à l'état n'413 doivent être émargées en conséquence, dans la présnete colonne.)</t>
   </si>
   <si>
     <t>Arrêté le seize juin 1921 servais</t>
@@ -260,12 +251,21 @@
   <si>
     <t>174 391</t>
   </si>
+  <si>
+    <t>Date du dépôt des déclarations</t>
+  </si>
+  <si>
+    <t>Droit de mutation par décès</t>
+  </si>
+  <si>
+    <t>(les déclarations qui figurent à l'état n'413 doivent être émargées en conséquence, dans la présente colonne.)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -303,6 +303,13 @@
       <name val="Aptos Narrow (Body)"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -312,7 +319,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -359,21 +366,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -449,113 +441,98 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -864,500 +841,500 @@
   </sheetPr>
   <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="13.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="17" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="13.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="17" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:20" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="29" t="s">
+      <c r="G1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="H1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="I1" s="25"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="L1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="34"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="23"/>
+      <c r="N1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="O1" s="23"/>
+      <c r="P1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="36"/>
-      <c r="N1" s="31" t="s">
+      <c r="Q1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="36"/>
-      <c r="P1" s="29" t="s">
+      <c r="R1" s="23"/>
+      <c r="S1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="31" t="s">
+      <c r="T1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="35"/>
-      <c r="S1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="D2" s="30" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A2" s="28"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="I2" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="5" t="s">
+      <c r="J2" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="K2" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="L2" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="M2" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="N2" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="O2" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="P2" s="29"/>
+      <c r="Q2" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="R2" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="S2" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="R2" s="6" t="s">
+      <c r="T2" s="30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="F3" s="3"/>
+      <c r="G3" s="4"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+    </row>
+    <row r="4" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
+        <v>145</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="C4" s="11" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9" t="s">
+      <c r="D4" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="11"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-    </row>
-    <row r="4" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A4" s="16">
-        <v>145</v>
-      </c>
-      <c r="B4" s="17" t="s">
+      <c r="E4" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="F4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D4" t="s">
+      <c r="G4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="H4" s="8">
+        <v>54845</v>
+      </c>
+      <c r="I4" s="8">
+        <v>1413</v>
+      </c>
+      <c r="J4" s="13">
+        <v>53432</v>
+      </c>
+      <c r="K4" s="4"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+    </row>
+    <row r="5" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="E5" s="12"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="4"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="4"/>
+      <c r="M5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="8"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+    </row>
+    <row r="6" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9">
+        <v>146</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="C6" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="15">
-        <v>54845</v>
-      </c>
-      <c r="I4" s="15">
-        <v>1413</v>
-      </c>
-      <c r="J4" s="20">
-        <v>53432</v>
-      </c>
-      <c r="K4" s="11"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="R4" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-    </row>
-    <row r="5" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9" t="s">
+      <c r="D6" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="11"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="11"/>
-      <c r="M5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="15"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-    </row>
-    <row r="6" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A6" s="16">
-        <v>146</v>
-      </c>
-      <c r="B6" s="9" t="s">
+      <c r="E6" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="F6" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D6" t="s">
+      <c r="G6" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="H6" s="16">
+        <v>12905</v>
+      </c>
+      <c r="I6" s="16">
+        <v>854</v>
+      </c>
+      <c r="J6" s="15">
+        <v>12020</v>
+      </c>
+      <c r="K6" s="4"/>
+      <c r="M6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="R6" s="16">
+        <v>169</v>
+      </c>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+    </row>
+    <row r="7" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="F7" s="8"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="17"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="4"/>
+      <c r="M7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="4"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+    </row>
+    <row r="8" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="23">
-        <v>12905</v>
-      </c>
-      <c r="I6" s="23">
-        <v>854</v>
-      </c>
-      <c r="J6" s="22">
-        <v>12020</v>
-      </c>
-      <c r="K6" s="11"/>
-      <c r="M6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="21" t="s">
+      <c r="F8" s="15"/>
+      <c r="G8" s="4"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="4"/>
+      <c r="M8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="4"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+    </row>
+    <row r="9" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="R6" s="23">
-        <v>169</v>
-      </c>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-    </row>
-    <row r="7" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="21" t="s">
+      <c r="F9" s="3"/>
+      <c r="G9" s="4"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="4"/>
+      <c r="M9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+    </row>
+    <row r="10" spans="1:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="9">
+        <v>147</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="24"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="11"/>
-      <c r="M7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="11"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-    </row>
-    <row r="8" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9" t="s">
+      <c r="C10" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="22"/>
-      <c r="G8" s="11"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="11"/>
-      <c r="M8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="11"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-    </row>
-    <row r="9" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9" t="s">
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="11"/>
-      <c r="M9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-    </row>
-    <row r="10" spans="1:20" ht="21.75" customHeight="1">
-      <c r="A10" s="16">
-        <v>147</v>
-      </c>
-      <c r="B10" s="9" t="s">
+      <c r="F10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="G10" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="H10" s="8">
+        <v>1960</v>
+      </c>
+      <c r="I10" s="8">
+        <v>336</v>
+      </c>
+      <c r="J10" s="15">
+        <v>1624</v>
+      </c>
+      <c r="K10" s="4"/>
+      <c r="M10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="R10" s="6"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+    </row>
+    <row r="11" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="F11" s="3"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="17"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="4"/>
+      <c r="M11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+    </row>
+    <row r="12" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H10" s="15">
-        <v>1960</v>
-      </c>
-      <c r="I10" s="15">
-        <v>336</v>
-      </c>
-      <c r="J10" s="22">
-        <v>1624</v>
-      </c>
-      <c r="K10" s="11"/>
-      <c r="M10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" t="s">
+      <c r="F12" s="3"/>
+      <c r="G12" s="19"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="4"/>
+      <c r="M12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+    </row>
+    <row r="13" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="R10" s="13"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-    </row>
-    <row r="11" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9" t="s">
+      <c r="F13" s="15"/>
+      <c r="G13" s="4"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="4"/>
+      <c r="M13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+    </row>
+    <row r="14" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="9">
+        <v>148</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="24"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="11"/>
-      <c r="M11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-    </row>
-    <row r="12" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9" t="s">
+      <c r="C14" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="26"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="11"/>
-      <c r="M12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-    </row>
-    <row r="13" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9" t="s">
+      <c r="D14" t="s">
         <v>53</v>
       </c>
-      <c r="F13" s="22"/>
-      <c r="G13" s="11"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="11"/>
-      <c r="M13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-    </row>
-    <row r="14" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A14" s="16">
-        <v>148</v>
-      </c>
-      <c r="B14" s="9" t="s">
+      <c r="E14" t="s">
         <v>54</v>
       </c>
-      <c r="C14" t="s">
+      <c r="F14" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D14" t="s">
+      <c r="G14" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E14" t="s">
+      <c r="H14" s="8">
+        <v>2945</v>
+      </c>
+      <c r="I14" s="8">
+        <v>1333</v>
+      </c>
+      <c r="J14" s="8">
+        <v>1612</v>
+      </c>
+      <c r="K14" s="4"/>
+      <c r="M14" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="O14" s="2"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="R14" s="15">
+        <v>287</v>
+      </c>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+    </row>
+    <row r="15" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="9">
+        <v>149</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H14" s="15">
-        <v>2945</v>
-      </c>
-      <c r="I14" s="15">
-        <v>1333</v>
-      </c>
-      <c r="J14" s="15">
-        <v>1612</v>
-      </c>
-      <c r="K14" s="11"/>
-      <c r="M14" s="9" t="s">
+      <c r="C15" t="s">
         <v>60</v>
       </c>
-      <c r="O14" s="9"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="21" t="s">
+      <c r="D15" t="s">
         <v>61</v>
       </c>
-      <c r="R14" s="22">
-        <v>287</v>
-      </c>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
-    </row>
-    <row r="15" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A15" s="16">
-        <v>149</v>
-      </c>
-      <c r="B15" s="9" t="s">
+      <c r="E15" t="s">
         <v>62</v>
       </c>
-      <c r="C15" t="s">
+      <c r="F15" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D15" t="s">
+      <c r="G15" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E15" t="s">
-        <v>65</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="H15" s="15">
+      <c r="H15" s="8">
         <v>9836</v>
       </c>
-      <c r="I15" s="15">
+      <c r="I15" s="8">
         <v>325</v>
       </c>
-      <c r="J15" s="15">
+      <c r="J15" s="8">
         <v>9511</v>
       </c>
-      <c r="K15" s="11"/>
-      <c r="M15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="11"/>
+      <c r="K15" s="4"/>
+      <c r="M15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="4"/>
       <c r="Q15" t="s">
-        <v>50</v>
-      </c>
-      <c r="R15" s="13"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
+        <v>47</v>
+      </c>
+      <c r="R15" s="6"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
